--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -55,40 +49,52 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
@@ -97,43 +103,43 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.84</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
         <v>31</v>
@@ -602,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6818181818181818</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C5">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,169 +684,97 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L5">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L6">
+        <v>95</v>
+      </c>
+      <c r="M6">
+        <v>95</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>17</v>
       </c>
-      <c r="K5">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L5">
-        <v>22</v>
-      </c>
-      <c r="M5">
-        <v>22</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.3433476394849785</v>
-      </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>153</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L7">
+        <v>46</v>
+      </c>
+      <c r="M7">
+        <v>46</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>63</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L7">
-        <v>44</v>
-      </c>
-      <c r="M7">
-        <v>44</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2625</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>59</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.78125</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -852,21 +786,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -883,16 +817,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.8035714285714286</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -904,21 +838,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7450980392156863</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -930,21 +864,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7413793103448276</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -956,21 +890,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.717948717948718</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -982,21 +916,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1008,21 +942,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6896551724137931</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1034,21 +968,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6712328767123288</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1060,21 +994,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1086,21 +1020,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.64</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1112,21 +1046,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.5821596244131455</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L19">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1138,21 +1072,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1164,21 +1098,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5151515151515151</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1190,21 +1124,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5069444444444444</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L22">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="M22">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1216,21 +1150,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>71</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.464406779661017</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1242,21 +1176,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.4673913043478261</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1268,21 +1202,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.4418604651162791</v>
+        <v>0.4</v>
       </c>
       <c r="L25">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1294,21 +1228,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.4285714285714285</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1320,33 +1254,163 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L27">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>0.3430962343096234</v>
+      </c>
+      <c r="L28">
+        <v>82</v>
+      </c>
+      <c r="M28">
+        <v>82</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29">
+        <v>0.04026845637583892</v>
+      </c>
+      <c r="L29">
+        <v>36</v>
+      </c>
+      <c r="M29">
+        <v>36</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K27">
-        <v>0.03902439024390244</v>
-      </c>
-      <c r="L27">
-        <v>16</v>
-      </c>
-      <c r="M27">
-        <v>16</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>394</v>
+      <c r="K30">
+        <v>0.03329633740288569</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31">
+        <v>0.01261682242990654</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>0.9</v>
+      </c>
+      <c r="O31">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32">
+        <v>0.01095713825330326</v>
+      </c>
+      <c r="L32">
+        <v>34</v>
+      </c>
+      <c r="M32">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>0.89</v>
+      </c>
+      <c r="O32">
+        <v>0.11</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3069</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -52,82 +58,85 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>support</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>well</t>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
   </si>
   <si>
     <t>store</t>
@@ -497,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5958904109589042</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -616,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2093023255813954</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C4">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>408</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -666,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2063492063492063</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,73 +717,121 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.2228682170542636</v>
+      </c>
+      <c r="C6">
+        <v>115</v>
+      </c>
+      <c r="D6">
+        <v>115</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>401</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L6">
+        <v>96</v>
+      </c>
+      <c r="M6">
+        <v>96</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.201058201058201</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>151</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="L7">
+        <v>28</v>
+      </c>
+      <c r="M7">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>0.8482142857142857</v>
-      </c>
-      <c r="L6">
-        <v>95</v>
-      </c>
-      <c r="M6">
-        <v>95</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L7">
-        <v>46</v>
-      </c>
-      <c r="M7">
-        <v>46</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.78125</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -786,21 +843,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7777777777777778</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -812,21 +869,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7682926829268293</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -838,21 +895,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7333333333333333</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -864,21 +921,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7323943661971831</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -890,21 +947,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7058823529411765</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -916,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -942,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6886792452830188</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L15">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -968,12 +1025,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>0.6595744680851063</v>
@@ -999,16 +1056,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6031746031746031</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1020,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.5851063829787234</v>
+        <v>0.62</v>
       </c>
       <c r="L18">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1046,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1072,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.58</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1098,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5195822454308094</v>
+        <v>0.5483028720626631</v>
       </c>
       <c r="L21">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="M21">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1124,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.4735294117647059</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L22">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1150,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>179</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.464406779661017</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L23">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1176,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>158</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4382022471910113</v>
+        <v>0.464406779661017</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1202,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1228,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.3974358974358974</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1254,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.3972602739726027</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1280,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.3430962343096234</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L28">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M28">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1306,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.04026845637583892</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1332,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>858</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.03329633740288569</v>
+        <v>0.04138702460850112</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1358,59 +1415,85 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>871</v>
+        <v>857</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.01261682242990654</v>
+        <v>0.03107658157602664</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N31">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>2113</v>
+        <v>873</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.01095713825330326</v>
+        <v>0.01448598130841122</v>
       </c>
       <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
         <v>34</v>
       </c>
-      <c r="M32">
-        <v>38</v>
-      </c>
       <c r="N32">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="O32">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>3069</v>
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.008690054715159318</v>
+      </c>
+      <c r="L33">
+        <v>27</v>
+      </c>
+      <c r="M33">
+        <v>27</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
